--- a/deploy/docs/Albedo equations.xlsx
+++ b/deploy/docs/Albedo equations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BRM\LANDIS_II\GitCode\aruzicka555\Extension-PnET-Succession\deploy\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BRM\LANDIS_II\GitCode\Extension-PnET-Succession\deploy\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C304B397-4253-4AD1-AC10-B920938F79F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801D99B4-1505-40A1-B030-12CADF14EEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15870" yWindow="-16365" windowWidth="15990" windowHeight="24840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12450" yWindow="-6450" windowWidth="11115" windowHeight="9885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,6 +91,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -144,12 +147,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3645,8 +3649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3728,7 +3732,7 @@
         <v>14</v>
       </c>
       <c r="I2" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L2">
         <v>0.7</v>
@@ -3750,19 +3754,19 @@
       </c>
       <c r="S2">
         <f>M2+(M2*(0.8*$I$3))</f>
-        <v>0.23339722124389506</v>
+        <v>0.42011499823901111</v>
       </c>
       <c r="T2">
         <f>N2+(N2*(0.75*$I$3))</f>
-        <v>0.22746044697269155</v>
+        <v>0.39805578220221022</v>
       </c>
       <c r="U2">
         <f>O2+(O2*0.35*$I$3)</f>
-        <v>0.22589000000000001</v>
-      </c>
-      <c r="V2">
+        <v>0.30495149999999999</v>
+      </c>
+      <c r="V2" s="5">
         <f>P2+(P2*2.125*$I$3)</f>
-        <v>0.24</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
@@ -3786,7 +3790,7 @@
       </c>
       <c r="I3">
         <f>IF(I2&gt;=I1,1,I2/I1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -3805,15 +3809,15 @@
       </c>
       <c r="S3">
         <f>M3+(M3*(0.8*$I$3))</f>
-        <v>0.20949999999999999</v>
+        <v>0.37709999999999999</v>
       </c>
       <c r="T3">
         <f t="shared" ref="T3:T9" si="3">N3+(N3*(0.75*$I$3))</f>
-        <v>0.2082</v>
+        <v>0.36435000000000001</v>
       </c>
       <c r="U3">
         <f t="shared" ref="U3:U9" si="4">O3+(O3*0.35*$I$3)</f>
-        <v>0.22370000000000001</v>
+        <v>0.30199500000000001</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -3846,15 +3850,15 @@
       </c>
       <c r="S4">
         <f>M4+(M4*(0.8*$I$3))</f>
-        <v>0.16305913890248366</v>
+        <v>0.29350645002447062</v>
       </c>
       <c r="T4">
         <f t="shared" si="3"/>
-        <v>0.17077005224976294</v>
+        <v>0.29884759143708517</v>
       </c>
       <c r="U4">
         <f t="shared" si="4"/>
-        <v>0.21640000000000001</v>
+        <v>0.29214000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -3887,15 +3891,15 @@
       </c>
       <c r="S5">
         <f t="shared" ref="S5:S9" si="5">M5+(M5*(0.8*$I$3))</f>
-        <v>0.13589297665923664</v>
+        <v>0.24460735798662595</v>
       </c>
       <c r="T5">
         <f t="shared" si="3"/>
-        <v>0.14887493641192207</v>
+        <v>0.26053113872086364</v>
       </c>
       <c r="U5">
         <f t="shared" si="4"/>
-        <v>0.20910000000000001</v>
+        <v>0.28228500000000001</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -3925,15 +3929,15 @@
       </c>
       <c r="S6">
         <f t="shared" si="5"/>
-        <v>0.11661827780496732</v>
+        <v>0.2099129000489412</v>
       </c>
       <c r="T6">
         <f t="shared" si="3"/>
-        <v>0.13334010449952591</v>
+        <v>0.23334518287417033</v>
       </c>
       <c r="U6">
         <f t="shared" si="4"/>
-        <v>0.20180000000000001</v>
+        <v>0.27243000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -3961,15 +3965,15 @@
       </c>
       <c r="S7">
         <f t="shared" si="5"/>
-        <v>0.10166765986691527</v>
+        <v>0.18300178776044751</v>
       </c>
       <c r="T7">
         <f t="shared" si="3"/>
-        <v>0.12129035272855858</v>
+        <v>0.21225811727497751</v>
       </c>
       <c r="U7">
         <f t="shared" si="4"/>
-        <v>0.19450000000000001</v>
+        <v>0.262575</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -3997,46 +4001,46 @@
       </c>
       <c r="S8">
         <f t="shared" si="5"/>
-        <v>8.9452115561720308E-2</v>
+        <v>0.16101380801109655</v>
       </c>
       <c r="T8">
         <f t="shared" si="3"/>
-        <v>0.11144498866168503</v>
+        <v>0.1950287301579488</v>
       </c>
       <c r="U8">
         <f t="shared" si="4"/>
-        <v>0.18720000000000001</v>
+        <v>0.25272</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="L9">
-        <v>0.01</v>
+        <v>7</v>
       </c>
       <c r="M9">
         <f>-0.067*LN( MAX(L9,0.7))+0.2095</f>
-        <v>0.23339722124389506</v>
+        <v>7.9124020013293994E-2</v>
       </c>
       <c r="N9">
         <f>-0.054*LN(MAX(L9,0.7))+0.2082</f>
-        <v>0.22746044697269155</v>
+        <v>0.10312085195101309</v>
       </c>
       <c r="O9">
         <f t="shared" si="2"/>
-        <v>0.23092700000000002</v>
+        <v>0.1799</v>
       </c>
       <c r="S9">
         <f t="shared" si="5"/>
-        <v>0.23339722124389506</v>
+        <v>0.1424232360239292</v>
       </c>
       <c r="T9">
         <f t="shared" si="3"/>
-        <v>0.22746044697269155</v>
+        <v>0.18046149091427291</v>
       </c>
       <c r="U9">
         <f t="shared" si="4"/>
-        <v>0.23092700000000002</v>
+        <v>0.242865</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
